--- a/docs/计费软件功能导航v2.xlsx
+++ b/docs/计费软件功能导航v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23780" windowHeight="15380"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="24600" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>区域管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,10 @@
   </si>
   <si>
     <t>具体字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限组先把权限建好，把对应的id号给我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +872,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -993,85 +997,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1415,54 +1422,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12">
       <c r="D5" s="33" t="s">
@@ -1470,11 +1477,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
@@ -1489,21 +1496,21 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="42">
@@ -1522,7 +1529,7 @@
       <c r="F9" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="63"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13" t="s">
@@ -1540,7 +1547,7 @@
       <c r="G10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -1558,7 +1565,7 @@
       <c r="E11" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="17" t="s">
         <v>114</v>
       </c>
@@ -1567,10 +1574,10 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1">
@@ -1586,7 +1593,7 @@
       <c r="D13" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
@@ -1604,7 +1611,7 @@
       <c r="E14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="17" t="s">
         <v>117</v>
       </c>
@@ -1625,7 +1632,7 @@
       <c r="E15" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="17" t="s">
         <v>118</v>
       </c>
@@ -1646,7 +1653,7 @@
       <c r="E16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
@@ -1664,56 +1671,56 @@
       <c r="G17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="63"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="42">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="62" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="63"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="37" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="63"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:11" ht="42">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="36" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1730,7 @@
       <c r="I21" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="64"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="17" t="s">
         <v>119</v>
       </c>
@@ -1732,10 +1739,10 @@
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="36" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1752,7 @@
       <c r="I22" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="66"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="17" t="s">
         <v>122</v>
       </c>
@@ -1754,79 +1761,79 @@
       <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="39" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="63"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="63"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:11" ht="28">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="39" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="63"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="42">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="36" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1843,7 @@
       <c r="I28" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="66"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="17" t="s">
         <v>123</v>
       </c>
@@ -1845,17 +1852,17 @@
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="17" t="s">
         <v>125</v>
       </c>
@@ -1864,10 +1871,10 @@
       <c r="A30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:11">
@@ -1886,7 +1893,7 @@
       <c r="H31" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="63"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
@@ -1904,7 +1911,7 @@
       <c r="H32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="63"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5" t="s">
@@ -1922,16 +1929,16 @@
       <c r="H33" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="63"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="56">
@@ -1950,8 +1957,8 @@
       <c r="F35" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="44" t="s">
+      <c r="J35" s="44"/>
+      <c r="K35" s="49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1971,8 +1978,8 @@
       <c r="F36" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="64"/>
-      <c r="K36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13" t="s">
@@ -1987,24 +1994,24 @@
       <c r="D37" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="63"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="36" t="s">
         <v>81</v>
       </c>
@@ -2014,16 +2021,16 @@
       <c r="I39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="66"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:11" ht="28">
       <c r="A40" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="37" t="s">
         <v>82</v>
       </c>
@@ -2033,23 +2040,23 @@
       <c r="I40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="66"/>
+      <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="54"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="37" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J41" s="63"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="17" t="s">
         <v>128</v>
       </c>
@@ -2058,26 +2065,26 @@
       <c r="A42" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="52"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="66"/>
+      <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:11" ht="28">
       <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="36" t="s">
         <v>87</v>
       </c>
@@ -2087,7 +2094,7 @@
       <c r="I43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J43" s="63"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="17" t="s">
         <v>130</v>
       </c>
@@ -2096,26 +2103,26 @@
       <c r="A44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="37" t="s">
         <v>88</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J44" s="63"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="52"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:11" ht="28">
@@ -2131,7 +2138,7 @@
       <c r="D46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="63"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="14" t="s">
@@ -2149,7 +2156,7 @@
       <c r="H47" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="63"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="14" t="s">
@@ -2167,9 +2174,9 @@
       <c r="H48" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="J48" s="63"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="14" t="s">
         <v>72</v>
       </c>
@@ -2182,71 +2189,71 @@
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J49" s="63"/>
-    </row>
-    <row r="50" spans="1:10" ht="28">
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" ht="28">
       <c r="A50" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="63"/>
-    </row>
-    <row r="51" spans="1:10" s="30" customFormat="1">
-      <c r="A51" s="61" t="s">
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="1:11" s="30" customFormat="1">
+      <c r="A51" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:10" s="30" customFormat="1">
+    <row r="52" spans="1:11" s="30" customFormat="1">
       <c r="A52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="J52" s="67"/>
-    </row>
-    <row r="53" spans="1:10" s="30" customFormat="1">
+      <c r="J52" s="47"/>
+    </row>
+    <row r="53" spans="1:11" s="30" customFormat="1">
       <c r="A53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J53" s="67"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="50" t="s">
+      <c r="J53" s="47"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="36"/>
     </row>
-    <row r="55" spans="1:10" s="31" customFormat="1" ht="28">
+    <row r="55" spans="1:11" s="31" customFormat="1" ht="28">
       <c r="A55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="37" t="s">
         <v>77</v>
       </c>
@@ -2254,64 +2261,62 @@
         <v>101</v>
       </c>
       <c r="I55" s="30"/>
-      <c r="J55" s="68"/>
-    </row>
-    <row r="56" spans="1:10" s="26" customFormat="1">
+      <c r="J55" s="48"/>
+      <c r="K55" s="69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="26" customFormat="1">
       <c r="A56" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="58"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="65"/>
-    </row>
-    <row r="57" spans="1:10" s="26" customFormat="1">
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="1:11" s="26" customFormat="1">
       <c r="A57" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J57" s="65"/>
-    </row>
-    <row r="58" spans="1:10" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="J57" s="45"/>
+    </row>
+    <row r="58" spans="1:11" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="A58" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="60"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="65"/>
+      <c r="J58" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
@@ -2328,16 +2333,21 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
